--- a/2.6. Registro de Autorización de devolución al proveedor/campos_unibell_servicio_autorizacion_devolucion_proveedor.xlsx
+++ b/2.6. Registro de Autorización de devolución al proveedor/campos_unibell_servicio_autorizacion_devolucion_proveedor.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\Intergración WMS\2.8. Registro de Autorización de devolución al proveedor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAINING1\Desktop\EVOL - FIELDS\Intergración WMS\2.6. Registro de Autorización de devolución al proveedor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1452A29E-7BDC-43E1-96DD-ECE390138E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF7252A-F414-4319-A173-8C18A96B9970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9569CFA-CC0E-4510-B81D-A697A083C165}"/>
   </bookViews>
@@ -285,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,14 +311,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB49CB3-079C-437B-AE71-A964E488500E}">
   <dimension ref="B2:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,8 +687,6 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
@@ -701,8 +698,7 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
@@ -714,8 +710,6 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
@@ -727,8 +721,7 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
@@ -740,8 +733,6 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
@@ -753,8 +744,6 @@
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
@@ -766,8 +755,6 @@
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
@@ -779,8 +766,6 @@
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
@@ -792,8 +777,6 @@
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
@@ -1207,19 +1190,19 @@
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="9"/>
+      <c r="B73" s="10"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="10"/>
+      <c r="B74" s="11"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="10"/>
+      <c r="B75" s="11"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="10"/>
+      <c r="B76" s="11"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
